--- a/資料生成/生成數據/original_end時間有改.xlsx
+++ b/資料生成/生成數據/original_end時間有改.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WYC\Desktop\電動大巴\EMS\EMS\資料生成\生成數據\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FCDEF5-6BB0-4FD6-A50A-FB29A401EB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07C0487-12DC-4264-82FC-FE1F801651BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-60" windowWidth="23256" windowHeight="12576" xr2:uid="{925A7D47-992F-4F6E-A337-4B25F368C99A}"/>
   </bookViews>
@@ -609,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FACC5D97-E1D9-47F3-B45A-FA82E50C58E4}">
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
